--- a/data/trans_dic/P25A_11_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_11_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por trastornos depresivos</t>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>8,28%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,44%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>71,46%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,95%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>55,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>58,7%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,48</t>
+          <t>0,63; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 16,3</t>
+          <t>3,8; 12,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,61</t>
+          <t>2,33; 7,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,66; 86,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 12,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 13,26</t>
+          <t>1,83; 8,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 14,58</t>
+          <t>4,73; 14,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,25; 68,45</t>
+          <t>6,98; 14,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 8,8</t>
+          <t>8,59; 14,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,84; 69,6</t>
+          <t>10,48; 21,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 9,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 12,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 10,69</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 15,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,4%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,86%</t>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,69</t>
+          <t>1,06; 4,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,72</t>
+          <t>1,37; 6,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,06</t>
+          <t>1,95; 4,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,06; 85,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,67</t>
+          <t>1,66; 5,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,04</t>
+          <t>3,84; 11,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,84; 79,96</t>
+          <t>3,16; 6,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,84</t>
+          <t>5,19; 10,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>61,9; 79,25</t>
+          <t>5,88; 11,55</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 7,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 5,55</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 6,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 7,9</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,05</t>
+          <t>1,73; 6,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,98</t>
+          <t>0,45; 3,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,49</t>
+          <t>1,02; 3,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,68; 89,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,84</t>
+          <t>2,55; 8,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,88</t>
+          <t>2,2; 6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,37; 77,06</t>
+          <t>2,89; 7,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,04</t>
+          <t>2,2; 5,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,24; 74,6</t>
+          <t>2,86; 7,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 5,68</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 4,55</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 3,91</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,19; 6,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,84%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>69,51%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,49%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,36</t>
+          <t>2,75; 8,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,15</t>
+          <t>2,57; 11,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,14; 79,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 7,52</t>
+          <t>1,59; 5,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,01</t>
+          <t>2,91; 6,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,63; 68,85</t>
+          <t>5,4; 11,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>56,86; 69,79</t>
+          <t>7,02; 13,55</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 6,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 10,34</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,53%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 4,92</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 5,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 4,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 6,93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 7,8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 8,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 11,17</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 6,04</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 6,07</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 7,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por trastornos depresivos (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7302</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36477</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31838</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20286</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>36720</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>64395</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>102563</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>100048</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>44022</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>100872</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>134401</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>120334</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2123; 22835</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20142; 63612</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16969; 58206</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8118; 38630</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19849; 59905</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44404; 91314</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76818; 133766</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>66314; 136788</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24746; 71669</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>73747; 141447</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>99459; 173440</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>82018; 166699</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21928</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34942</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51117</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34233</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63430</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57477</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107575</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90796</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>85358</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>92419</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>158692</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>125028</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9871; 41769</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16481; 76680</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31567; 80424</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17719; 62522</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>38319; 116710</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38854; 82314</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>78281; 160595</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>63559; 124846</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>58073; 138297</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>66233; 135239</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>117931; 217255</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>90736; 169701</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25424</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11271</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22952</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38662</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30001</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44854</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>40313</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42089</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>55425</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>56125</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>63265</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>80751</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12351; 48623</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3826; 25688</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11187; 42934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>21068; 68624</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16902; 50194</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>27247; 67325</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25620; 59503</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25585; 65515</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>35617; 84266</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>37449; 81215</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>43292; 88185</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>54976; 112440</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>66703</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46469</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61161</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59298</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>95733</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>127864</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>105767</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>126957</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40054; 116662</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22022; 99515</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17437; 59699</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>40330; 91584</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41081; 85698</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>68608; 132488</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>91190; 178035</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>73461; 167406</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>92984; 171307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>121357</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>129160</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>105907</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>124405</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>191312</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>226023</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>250451</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>328666</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>312669</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>355183</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>356358</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>453071</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>86969; 169303</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>88720; 203737</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>75161; 147805</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>90408; 171210</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>148825; 247314</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>187766; 278461</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>208252; 315232</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>270762; 400852</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>253729; 386284</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>293224; 423145</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>301372; 425424</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>383048; 531445</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
